--- a/config/excel/herolevel.xlsx
+++ b/config/excel/herolevel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="herolevel" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -246,12 +253,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -566,76 +585,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,10 +657,10 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,10 +669,10 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,10 +681,10 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,10 +693,10 @@
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,18 +705,42 @@
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1256,48 +1293,48 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1305,33 +1342,33 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4">
@@ -1343,18 +1380,18 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>50</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="2:8">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5">
@@ -1366,18 +1403,18 @@
       <c r="F5">
         <v>101</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>51</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:8">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6">
@@ -1389,18 +1426,18 @@
       <c r="F6">
         <v>102</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>52</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7">
@@ -1412,18 +1449,18 @@
       <c r="F7">
         <v>103</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>53</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8">
@@ -1435,18 +1472,18 @@
       <c r="F8">
         <v>104</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>54</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
       <c r="D9">
@@ -1458,18 +1495,18 @@
       <c r="F9">
         <v>105</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>55</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
       <c r="D10">
@@ -1481,18 +1518,18 @@
       <c r="F10">
         <v>106</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>56</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="D11">
@@ -1504,18 +1541,18 @@
       <c r="F11">
         <v>107</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>57</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>9</v>
       </c>
       <c r="D12">
@@ -1527,18 +1564,18 @@
       <c r="F12">
         <v>108</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>58</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="D13">
@@ -1550,18 +1587,18 @@
       <c r="F13">
         <v>109</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>59</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>11</v>
       </c>
       <c r="D14">
@@ -1573,18 +1610,18 @@
       <c r="F14">
         <v>110</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>60</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>12</v>
       </c>
       <c r="D15">
@@ -1596,18 +1633,18 @@
       <c r="F15">
         <v>111</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>61</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>13</v>
       </c>
       <c r="D16">
@@ -1619,10 +1656,10 @@
       <c r="F16">
         <v>112</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>62</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1630,7 +1667,7 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>14</v>
       </c>
       <c r="D17">
@@ -1642,10 +1679,10 @@
       <c r="F17">
         <v>113</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>63</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1653,7 +1690,7 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>15</v>
       </c>
       <c r="D18">
@@ -1665,10 +1702,10 @@
       <c r="F18">
         <v>114</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>64</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1676,7 +1713,7 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>16</v>
       </c>
       <c r="D19">
@@ -1688,10 +1725,10 @@
       <c r="F19">
         <v>115</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="5">
         <v>65</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1699,7 +1736,7 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>17</v>
       </c>
       <c r="D20">
@@ -1711,10 +1748,10 @@
       <c r="F20">
         <v>116</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>66</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1722,7 +1759,7 @@
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>18</v>
       </c>
       <c r="D21">
@@ -1734,10 +1771,10 @@
       <c r="F21">
         <v>117</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>67</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1782,7 @@
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>19</v>
       </c>
       <c r="D22">
@@ -1757,10 +1794,10 @@
       <c r="F22">
         <v>118</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <v>68</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1768,7 +1805,7 @@
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>20</v>
       </c>
       <c r="D23">
@@ -1780,10 +1817,10 @@
       <c r="F23">
         <v>119</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <v>69</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1791,7 +1828,7 @@
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>21</v>
       </c>
       <c r="D24">
@@ -1803,10 +1840,10 @@
       <c r="F24">
         <v>120</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="5">
         <v>70</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1851,7 @@
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>22</v>
       </c>
       <c r="D25">
@@ -1826,10 +1863,10 @@
       <c r="F25">
         <v>121</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="5">
         <v>71</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1837,7 +1874,7 @@
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>23</v>
       </c>
       <c r="D26">
@@ -1849,10 +1886,10 @@
       <c r="F26">
         <v>122</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>72</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1860,7 +1897,7 @@
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>24</v>
       </c>
       <c r="D27">
@@ -1872,10 +1909,10 @@
       <c r="F27">
         <v>123</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>73</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1883,7 +1920,7 @@
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>25</v>
       </c>
       <c r="D28">
@@ -1895,10 +1932,10 @@
       <c r="F28">
         <v>124</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>74</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1906,7 +1943,7 @@
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>26</v>
       </c>
       <c r="D29">
@@ -1918,10 +1955,10 @@
       <c r="F29">
         <v>125</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>75</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1929,7 +1966,7 @@
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>27</v>
       </c>
       <c r="D30">
@@ -1941,10 +1978,10 @@
       <c r="F30">
         <v>126</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>76</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1952,7 +1989,7 @@
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>28</v>
       </c>
       <c r="D31">
@@ -1964,10 +2001,10 @@
       <c r="F31">
         <v>127</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="5">
         <v>77</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1975,7 +2012,7 @@
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>29</v>
       </c>
       <c r="D32">
@@ -1987,10 +2024,10 @@
       <c r="F32">
         <v>128</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="5">
         <v>78</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +2035,7 @@
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>30</v>
       </c>
       <c r="D33">
@@ -2010,10 +2047,10 @@
       <c r="F33">
         <v>129</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>79</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2021,7 +2058,7 @@
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>31</v>
       </c>
       <c r="D34">
@@ -2033,10 +2070,10 @@
       <c r="F34">
         <v>130</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>80</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2044,7 +2081,7 @@
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>32</v>
       </c>
       <c r="D35">
@@ -2056,10 +2093,10 @@
       <c r="F35">
         <v>131</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>81</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2067,7 +2104,7 @@
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>33</v>
       </c>
       <c r="D36">
@@ -2079,10 +2116,10 @@
       <c r="F36">
         <v>132</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="5">
         <v>82</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2090,7 +2127,7 @@
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>34</v>
       </c>
       <c r="D37">
@@ -2102,10 +2139,10 @@
       <c r="F37">
         <v>133</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>83</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2113,7 +2150,7 @@
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>35</v>
       </c>
       <c r="D38">
@@ -2125,10 +2162,10 @@
       <c r="F38">
         <v>134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="5">
         <v>84</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2136,7 +2173,7 @@
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>36</v>
       </c>
       <c r="D39">
@@ -2148,10 +2185,10 @@
       <c r="F39">
         <v>135</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="5">
         <v>85</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2159,7 +2196,7 @@
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>37</v>
       </c>
       <c r="D40">
@@ -2171,10 +2208,10 @@
       <c r="F40">
         <v>136</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>86</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2182,7 +2219,7 @@
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>38</v>
       </c>
       <c r="D41">
@@ -2194,10 +2231,10 @@
       <c r="F41">
         <v>137</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="5">
         <v>87</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2205,7 +2242,7 @@
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>39</v>
       </c>
       <c r="D42">
@@ -2217,10 +2254,10 @@
       <c r="F42">
         <v>138</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
         <v>88</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2265,7 @@
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>40</v>
       </c>
       <c r="D43">
@@ -2240,10 +2277,10 @@
       <c r="F43">
         <v>139</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="5">
         <v>89</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2251,7 +2288,7 @@
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>41</v>
       </c>
       <c r="D44">
@@ -2263,10 +2300,10 @@
       <c r="F44">
         <v>140</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="5">
         <v>90</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2274,7 +2311,7 @@
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>42</v>
       </c>
       <c r="D45">
@@ -2286,10 +2323,10 @@
       <c r="F45">
         <v>141</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="5">
         <v>91</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2297,7 +2334,7 @@
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>43</v>
       </c>
       <c r="D46">
@@ -2309,10 +2346,10 @@
       <c r="F46">
         <v>142</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>92</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2320,7 +2357,7 @@
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>44</v>
       </c>
       <c r="D47">
@@ -2332,10 +2369,10 @@
       <c r="F47">
         <v>143</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="5">
         <v>93</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2343,7 +2380,7 @@
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>45</v>
       </c>
       <c r="D48">
@@ -2355,10 +2392,10 @@
       <c r="F48">
         <v>144</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="5">
         <v>94</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2403,7 @@
       <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>46</v>
       </c>
       <c r="D49">
@@ -2378,10 +2415,10 @@
       <c r="F49">
         <v>145</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="5">
         <v>95</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2426,7 @@
       <c r="B50">
         <v>47</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>47</v>
       </c>
       <c r="D50">
@@ -2401,10 +2438,10 @@
       <c r="F50">
         <v>146</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="5">
         <v>96</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2449,7 @@
       <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="4">
         <v>48</v>
       </c>
       <c r="D51">
@@ -2424,10 +2461,10 @@
       <c r="F51">
         <v>147</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="5">
         <v>97</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2472,7 @@
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <v>49</v>
       </c>
       <c r="D52">
@@ -2447,10 +2484,10 @@
       <c r="F52">
         <v>148</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="5">
         <v>98</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2458,7 +2495,7 @@
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="4">
         <v>50</v>
       </c>
       <c r="D53">
@@ -2470,10 +2507,10 @@
       <c r="F53">
         <v>149</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="5">
         <v>99</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2481,7 +2518,7 @@
       <c r="B54">
         <v>51</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <v>51</v>
       </c>
       <c r="D54">
@@ -2493,10 +2530,10 @@
       <c r="F54">
         <v>150</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="5">
         <v>100</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2504,7 +2541,7 @@
       <c r="B55">
         <v>52</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="4">
         <v>52</v>
       </c>
       <c r="D55">
@@ -2516,10 +2553,10 @@
       <c r="F55">
         <v>151</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="5">
         <v>101</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2527,7 +2564,7 @@
       <c r="B56">
         <v>53</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="4">
         <v>53</v>
       </c>
       <c r="D56">
@@ -2539,10 +2576,10 @@
       <c r="F56">
         <v>152</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="5">
         <v>102</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2550,7 +2587,7 @@
       <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="4">
         <v>54</v>
       </c>
       <c r="D57">
@@ -2562,10 +2599,10 @@
       <c r="F57">
         <v>153</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="5">
         <v>103</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="5">
         <v>13</v>
       </c>
     </row>
@@ -2573,7 +2610,7 @@
       <c r="B58">
         <v>55</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="4">
         <v>55</v>
       </c>
       <c r="D58">
@@ -2585,10 +2622,10 @@
       <c r="F58">
         <v>154</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="5">
         <v>104</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="5">
         <v>14</v>
       </c>
     </row>
@@ -2596,7 +2633,7 @@
       <c r="B59">
         <v>56</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="4">
         <v>56</v>
       </c>
       <c r="D59">
@@ -2608,10 +2645,10 @@
       <c r="F59">
         <v>155</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="5">
         <v>105</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2619,7 +2656,7 @@
       <c r="B60">
         <v>57</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="4">
         <v>57</v>
       </c>
       <c r="D60">
@@ -2631,10 +2668,10 @@
       <c r="F60">
         <v>156</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="5">
         <v>106</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2642,7 +2679,7 @@
       <c r="B61">
         <v>58</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="4">
         <v>58</v>
       </c>
       <c r="D61">
@@ -2654,10 +2691,10 @@
       <c r="F61">
         <v>157</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="5">
         <v>107</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="5">
         <v>17</v>
       </c>
     </row>
@@ -2665,7 +2702,7 @@
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="4">
         <v>59</v>
       </c>
       <c r="D62">
@@ -2677,10 +2714,10 @@
       <c r="F62">
         <v>158</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="5">
         <v>108</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2688,7 +2725,7 @@
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <v>60</v>
       </c>
       <c r="D63">
@@ -2700,10 +2737,10 @@
       <c r="F63">
         <v>159</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="5">
         <v>109</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="5">
         <v>19</v>
       </c>
     </row>
@@ -2711,7 +2748,7 @@
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>61</v>
       </c>
       <c r="D64">
@@ -2723,10 +2760,10 @@
       <c r="F64">
         <v>160</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="5">
         <v>110</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2734,7 +2771,7 @@
       <c r="B65">
         <v>62</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>62</v>
       </c>
       <c r="D65">
@@ -2746,10 +2783,10 @@
       <c r="F65">
         <v>161</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="5">
         <v>111</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="5">
         <v>21</v>
       </c>
     </row>
@@ -2757,7 +2794,7 @@
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>63</v>
       </c>
       <c r="D66">
@@ -2769,10 +2806,10 @@
       <c r="F66">
         <v>162</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="5">
         <v>112</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="5">
         <v>22</v>
       </c>
     </row>
@@ -2780,7 +2817,7 @@
       <c r="B67">
         <v>64</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>64</v>
       </c>
       <c r="D67">
@@ -2792,10 +2829,10 @@
       <c r="F67">
         <v>163</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="5">
         <v>113</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="5">
         <v>23</v>
       </c>
     </row>
@@ -2803,7 +2840,7 @@
       <c r="B68">
         <v>65</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>65</v>
       </c>
       <c r="D68">
@@ -2815,10 +2852,10 @@
       <c r="F68">
         <v>164</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="5">
         <v>114</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2826,7 +2863,7 @@
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>66</v>
       </c>
       <c r="D69">
@@ -2838,10 +2875,10 @@
       <c r="F69">
         <v>165</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="5">
         <v>115</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="5">
         <v>25</v>
       </c>
     </row>
@@ -2849,7 +2886,7 @@
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>67</v>
       </c>
       <c r="D70">
@@ -2861,10 +2898,10 @@
       <c r="F70">
         <v>166</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="5">
         <v>116</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="5">
         <v>26</v>
       </c>
     </row>
@@ -2872,7 +2909,7 @@
       <c r="B71">
         <v>68</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>68</v>
       </c>
       <c r="D71">
@@ -2884,10 +2921,10 @@
       <c r="F71">
         <v>167</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="5">
         <v>117</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="5">
         <v>27</v>
       </c>
     </row>
@@ -2895,7 +2932,7 @@
       <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <v>69</v>
       </c>
       <c r="D72">
@@ -2907,10 +2944,10 @@
       <c r="F72">
         <v>168</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="5">
         <v>118</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="5">
         <v>28</v>
       </c>
     </row>
@@ -2918,7 +2955,7 @@
       <c r="B73">
         <v>70</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>70</v>
       </c>
       <c r="D73">
@@ -2930,10 +2967,10 @@
       <c r="F73">
         <v>169</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="5">
         <v>119</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="5">
         <v>29</v>
       </c>
     </row>
@@ -2941,7 +2978,7 @@
       <c r="B74">
         <v>71</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="4">
         <v>71</v>
       </c>
       <c r="D74">
@@ -2953,10 +2990,10 @@
       <c r="F74">
         <v>170</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="5">
         <v>120</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="5">
         <v>30</v>
       </c>
     </row>
@@ -2964,7 +3001,7 @@
       <c r="B75">
         <v>72</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <v>72</v>
       </c>
       <c r="D75">
@@ -2976,10 +3013,10 @@
       <c r="F75">
         <v>171</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="5">
         <v>121</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="5">
         <v>31</v>
       </c>
     </row>
@@ -2987,7 +3024,7 @@
       <c r="B76">
         <v>73</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="4">
         <v>73</v>
       </c>
       <c r="D76">
@@ -2999,10 +3036,10 @@
       <c r="F76">
         <v>172</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="5">
         <v>122</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="5">
         <v>32</v>
       </c>
     </row>
@@ -3010,7 +3047,7 @@
       <c r="B77">
         <v>74</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="4">
         <v>74</v>
       </c>
       <c r="D77">
@@ -3022,10 +3059,10 @@
       <c r="F77">
         <v>173</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="5">
         <v>123</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="5">
         <v>33</v>
       </c>
     </row>
@@ -3033,7 +3070,7 @@
       <c r="B78">
         <v>75</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <v>75</v>
       </c>
       <c r="D78">
@@ -3045,10 +3082,10 @@
       <c r="F78">
         <v>174</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="5">
         <v>124</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="5">
         <v>34</v>
       </c>
     </row>
@@ -3056,7 +3093,7 @@
       <c r="B79">
         <v>76</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="4">
         <v>76</v>
       </c>
       <c r="D79">
@@ -3068,10 +3105,10 @@
       <c r="F79">
         <v>175</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="5">
         <v>125</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="5">
         <v>35</v>
       </c>
     </row>
@@ -3079,7 +3116,7 @@
       <c r="B80">
         <v>77</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>77</v>
       </c>
       <c r="D80">
@@ -3091,10 +3128,10 @@
       <c r="F80">
         <v>176</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="5">
         <v>126</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="5">
         <v>36</v>
       </c>
     </row>
@@ -3102,7 +3139,7 @@
       <c r="B81">
         <v>78</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <v>78</v>
       </c>
       <c r="D81">
@@ -3114,10 +3151,10 @@
       <c r="F81">
         <v>177</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="5">
         <v>127</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="5">
         <v>37</v>
       </c>
     </row>
@@ -3125,7 +3162,7 @@
       <c r="B82">
         <v>79</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="4">
         <v>79</v>
       </c>
       <c r="D82">
@@ -3137,10 +3174,10 @@
       <c r="F82">
         <v>178</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="5">
         <v>128</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="5">
         <v>38</v>
       </c>
     </row>
@@ -3148,7 +3185,7 @@
       <c r="B83">
         <v>80</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="4">
         <v>80</v>
       </c>
       <c r="D83">
@@ -3160,10 +3197,10 @@
       <c r="F83">
         <v>179</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="5">
         <v>129</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="5">
         <v>39</v>
       </c>
     </row>
@@ -3171,7 +3208,7 @@
       <c r="B84">
         <v>81</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="4">
         <v>81</v>
       </c>
       <c r="D84">
@@ -3183,10 +3220,10 @@
       <c r="F84">
         <v>180</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="5">
         <v>130</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="5">
         <v>40</v>
       </c>
     </row>
@@ -3194,7 +3231,7 @@
       <c r="B85">
         <v>82</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <v>82</v>
       </c>
       <c r="D85">
@@ -3206,10 +3243,10 @@
       <c r="F85">
         <v>181</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="5">
         <v>131</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="5">
         <v>41</v>
       </c>
     </row>
@@ -3217,7 +3254,7 @@
       <c r="B86">
         <v>83</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="4">
         <v>83</v>
       </c>
       <c r="D86">
@@ -3229,10 +3266,10 @@
       <c r="F86">
         <v>182</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="5">
         <v>132</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="5">
         <v>42</v>
       </c>
     </row>
@@ -3240,7 +3277,7 @@
       <c r="B87">
         <v>84</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <v>84</v>
       </c>
       <c r="D87">
@@ -3252,10 +3289,10 @@
       <c r="F87">
         <v>183</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="5">
         <v>133</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="5">
         <v>43</v>
       </c>
     </row>
@@ -3263,7 +3300,7 @@
       <c r="B88">
         <v>85</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="4">
         <v>85</v>
       </c>
       <c r="D88">
@@ -3275,10 +3312,10 @@
       <c r="F88">
         <v>184</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="5">
         <v>134</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="5">
         <v>44</v>
       </c>
     </row>
@@ -3286,7 +3323,7 @@
       <c r="B89">
         <v>86</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <v>86</v>
       </c>
       <c r="D89">
@@ -3298,10 +3335,10 @@
       <c r="F89">
         <v>185</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="5">
         <v>135</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="5">
         <v>45</v>
       </c>
     </row>
@@ -3309,7 +3346,7 @@
       <c r="B90">
         <v>87</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="4">
         <v>87</v>
       </c>
       <c r="D90">
@@ -3321,10 +3358,10 @@
       <c r="F90">
         <v>186</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="5">
         <v>136</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="5">
         <v>46</v>
       </c>
     </row>
@@ -3332,7 +3369,7 @@
       <c r="B91">
         <v>88</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="4">
         <v>88</v>
       </c>
       <c r="D91">
@@ -3344,10 +3381,10 @@
       <c r="F91">
         <v>187</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="5">
         <v>137</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="5">
         <v>47</v>
       </c>
     </row>
@@ -3355,7 +3392,7 @@
       <c r="B92">
         <v>89</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="4">
         <v>89</v>
       </c>
       <c r="D92">
@@ -3367,10 +3404,10 @@
       <c r="F92">
         <v>188</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="5">
         <v>138</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="5">
         <v>48</v>
       </c>
     </row>
@@ -3378,7 +3415,7 @@
       <c r="B93">
         <v>90</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="4">
         <v>90</v>
       </c>
       <c r="D93">
@@ -3390,10 +3427,10 @@
       <c r="F93">
         <v>189</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="5">
         <v>139</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="5">
         <v>49</v>
       </c>
     </row>
@@ -3401,7 +3438,7 @@
       <c r="B94">
         <v>91</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="4">
         <v>91</v>
       </c>
       <c r="D94">
@@ -3413,10 +3450,10 @@
       <c r="F94">
         <v>190</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="5">
         <v>140</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="5">
         <v>50</v>
       </c>
     </row>
@@ -3424,7 +3461,7 @@
       <c r="B95">
         <v>92</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="4">
         <v>92</v>
       </c>
       <c r="D95">
@@ -3436,10 +3473,10 @@
       <c r="F95">
         <v>191</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="5">
         <v>141</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="5">
         <v>51</v>
       </c>
     </row>
@@ -3447,7 +3484,7 @@
       <c r="B96">
         <v>93</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="4">
         <v>93</v>
       </c>
       <c r="D96">
@@ -3459,18 +3496,18 @@
       <c r="F96">
         <v>192</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="5">
         <v>142</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="1:8">
       <c r="B97">
         <v>94</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="4">
         <v>94</v>
       </c>
       <c r="D97">
@@ -3482,18 +3519,18 @@
       <c r="F97">
         <v>193</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="5">
         <v>143</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="1:8">
       <c r="B98">
         <v>95</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="4">
         <v>95</v>
       </c>
       <c r="D98">
@@ -3505,18 +3542,18 @@
       <c r="F98">
         <v>194</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="5">
         <v>144</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="1:8">
       <c r="B99">
         <v>96</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="4">
         <v>96</v>
       </c>
       <c r="D99">
@@ -3528,18 +3565,18 @@
       <c r="F99">
         <v>195</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="5">
         <v>145</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="1:8">
       <c r="B100">
         <v>97</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="4">
         <v>97</v>
       </c>
       <c r="D100">
@@ -3551,18 +3588,18 @@
       <c r="F100">
         <v>196</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="5">
         <v>146</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="1:8">
       <c r="B101">
         <v>98</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="4">
         <v>98</v>
       </c>
       <c r="D101">
@@ -3574,10 +3611,10 @@
       <c r="F101">
         <v>197</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="5">
         <v>147</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="5">
         <v>57</v>
       </c>
     </row>
@@ -3588,7 +3625,7 @@
       <c r="B102">
         <v>99</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="4">
         <v>99</v>
       </c>
       <c r="D102">
@@ -3600,15 +3637,15 @@
       <c r="F102">
         <v>198</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="5">
         <v>148</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="1"/>
+    <row r="103" spans="1:8">
+      <c r="C103" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
